--- a/Hardware/BOM.xlsx
+++ b/Hardware/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MicrobiotaLab\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Companies\MicrobiotaLab\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A497F0E6-C178-463C-B4B4-9D1882560AD0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F540658-202B-43D2-9365-9138557EB697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{743D7683-0A44-40CD-B399-B74DE609EE5F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>Componenet</t>
   </si>
@@ -259,13 +259,37 @@
   </si>
   <si>
     <t>PCB TestPlatform Rev1.0</t>
+  </si>
+  <si>
+    <t>pcbway</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 40V 50A TO252</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 1% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>AOD4184A</t>
+  </si>
+  <si>
+    <t>RC1206FR-07100KL</t>
+  </si>
+  <si>
+    <t>Daniil Andreev</t>
+  </si>
+  <si>
+    <t>Purchaser</t>
+  </si>
+  <si>
+    <t>Marco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +304,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,17 +327,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D5210C97-6830-4FF9-8A4E-CA806E50BFAC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,20 +655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C767E192-60EF-41B7-B4DA-06591FC62281}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -662,8 +696,11 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -692,8 +729,11 @@
         <f>G2+H2+F2</f>
         <v>4.1202000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -711,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">D3*E3</f>
+        <f t="shared" ref="G3:G10" si="0">D3*E3</f>
         <v>7.93</v>
       </c>
       <c r="H3">
@@ -722,8 +762,11 @@
         <f>G3+H3+F3+I2</f>
         <v>12.7639</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -749,11 +792,14 @@
         <v>0.77760000000000007</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I37" si="2">G4+H4+F4+I3</f>
+        <f t="shared" ref="I4:I12" si="2">G4+H4+F4+I3</f>
         <v>22.1815</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -782,8 +828,11 @@
         <f t="shared" si="2"/>
         <v>39.032899999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -812,14 +861,17 @@
         <f t="shared" si="2"/>
         <v>54.7209</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="G7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H3:H7" si="3">G7*0</f>
+        <f t="shared" ref="H7" si="3">G7*0</f>
         <v>0</v>
       </c>
       <c r="I7">
@@ -827,7 +879,7 @@
         <v>54.7209</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -855,8 +907,11 @@
         <f t="shared" si="2"/>
         <v>76.310100000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -865,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H37" si="4">G9*0.08</f>
+        <f t="shared" ref="H9:H12" si="4">G9*0.08</f>
         <v>0</v>
       </c>
       <c r="I9">
@@ -873,7 +928,7 @@
         <v>76.310100000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -902,12 +957,17 @@
         <f t="shared" si="2"/>
         <v>86.019300000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D11">
         <f>5/10</f>
         <v>0.5</v>
@@ -930,400 +990,433 @@
         <f>G11+H11+F11+I10</f>
         <v>116.41929999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f>D12*E12</f>
+        <v>5</v>
+      </c>
       <c r="H12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>G12*0.08</f>
+        <v>0.4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>116.41929999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+        <f>G12+H12+F12+I11</f>
+        <v>137.8193</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E13">
-        <f>G13/D13</f>
+      <c r="E14">
+        <f>G14/D14</f>
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>16.399999999999999</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
+      <c r="H14">
+        <f>G14*0.08</f>
         <v>1.3119999999999998</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>134.13129999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="I14">
+        <f>G14+H14+F14+I12</f>
+        <v>155.53129999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>6.45</v>
       </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E37" si="5">G14/D14</f>
+      <c r="E15">
+        <f t="shared" ref="E15:E38" si="5">G15/D15</f>
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>12.9</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
+      <c r="H15">
+        <f>G15*0.08</f>
         <v>1.032</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>148.06329999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="I15">
+        <f>G15+H15+F15+I14</f>
+        <v>169.46329999999998</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2.83</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>5.66</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
+      <c r="H16">
+        <f>G16*0.08</f>
         <v>0.45280000000000004</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>154.17609999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="I16">
+        <f>G16+H16+F16+I15</f>
+        <v>175.57609999999997</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>3.26</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>6.52</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
+      <c r="H17">
+        <f>G17*0.08</f>
         <v>0.52159999999999995</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>161.21769999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="I17">
+        <f>G17+H17+F17+I16</f>
+        <v>182.61769999999996</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.39</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>0.78</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
+      <c r="H18">
+        <f>G18*0.08</f>
         <v>6.2400000000000004E-2</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>162.06009999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="I18">
+        <f>G18+H18+F18+I17</f>
+        <v>183.46009999999995</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1.41</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="5"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
+      <c r="H19">
+        <f>G19*0.08</f>
         <v>0.33840000000000003</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>166.62849999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="I19">
+        <f>G19+H19+F19+I18</f>
+        <v>188.02849999999995</v>
+      </c>
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>0.79</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>3.16</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
+      <c r="H20">
+        <f>G20*0.08</f>
         <v>0.25280000000000002</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>170.04129999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="I20">
+        <f>G20+H20+F20+I19</f>
+        <v>191.44129999999996</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3.64</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
+      <c r="H21">
+        <f>G21*0.08</f>
         <v>0.29120000000000001</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>173.97249999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="I21">
+        <f>G21+H21+F21+I20</f>
+        <v>195.37249999999995</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>3.31</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>6.62</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
+      <c r="H22">
+        <f>G22*0.08</f>
         <v>0.52960000000000007</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>181.12209999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="I22">
+        <f>G22+H22+F22+I21</f>
+        <v>202.52209999999994</v>
+      </c>
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.35099999999999998</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>3.51</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
+      <c r="H23">
+        <f>G23*0.08</f>
         <v>0.28079999999999999</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>184.91289999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="I23">
+        <f>G23+H23+F23+I22</f>
+        <v>206.31289999999993</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>1.6</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>3.2</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
+      <c r="H24">
+        <f>G24*0.08</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>188.36889999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="I24">
+        <f>G24+H24+F24+I23</f>
+        <v>209.76889999999992</v>
+      </c>
+      <c r="J24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.74</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>1.48</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
+      <c r="H25">
+        <f>G25*0.08</f>
         <v>0.11840000000000001</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>189.96729999999991</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="I25">
+        <f>G25+H25+F25+I24</f>
+        <v>211.36729999999991</v>
+      </c>
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>48</v>
-      </c>
-      <c r="D25">
-        <v>2.41</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>4.82</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>0.38560000000000005</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>195.17289999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
       </c>
       <c r="D26">
         <v>2.41</v>
@@ -1339,335 +1432,509 @@
         <v>4.82</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f>G26*0.08</f>
         <v>0.38560000000000005</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
-        <v>200.37849999999992</v>
+        <f>G26+H26+F26+I25</f>
+        <v>216.57289999999992</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
       </c>
       <c r="M26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>2.41</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4.82</v>
+      </c>
+      <c r="H27">
+        <f>G27*0.08</f>
+        <v>0.38560000000000005</v>
+      </c>
+      <c r="I27">
+        <f>G27+H27+F27+I26</f>
+        <v>221.77849999999992</v>
+      </c>
+      <c r="J27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0.59</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
+      <c r="H28">
+        <f>G28*0.08</f>
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>201.01569999999992</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="I28">
+        <f>G28+H28+F28+I27</f>
+        <v>222.41569999999993</v>
+      </c>
+      <c r="J28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>54</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>0.183</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>1.83</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
+      <c r="H29">
+        <f>G29*0.08</f>
         <v>0.1464</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>202.99209999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="I29">
+        <f>G29+H29+F29+I28</f>
+        <v>224.39209999999994</v>
+      </c>
+      <c r="J29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="4"/>
+      <c r="H30">
+        <f>G30*0.08</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>205.18449999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="I30">
+        <f>G30+H30+F30+I29</f>
+        <v>226.58449999999993</v>
+      </c>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>3.66</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="4"/>
+      <c r="H31">
+        <f>G31*0.08</f>
         <v>0.2928</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>209.13729999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="I31">
+        <f>G31+H31+F31+I30</f>
+        <v>230.53729999999993</v>
+      </c>
+      <c r="J31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>60</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>1.48</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="4"/>
+      <c r="H32">
+        <f>G32*0.08</f>
         <v>0.11840000000000001</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>210.73569999999992</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="I32">
+        <f>G32+H32+F32+I31</f>
+        <v>232.13569999999993</v>
+      </c>
+      <c r="J32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>0.38</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="4"/>
+      <c r="H33">
+        <f>G33*0.08</f>
         <v>3.04E-2</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>211.14609999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="I33">
+        <f>G33+H33+F33+I32</f>
+        <v>232.54609999999994</v>
+      </c>
+      <c r="J33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0.87</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="4"/>
+      <c r="H34">
+        <f>G34*0.08</f>
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>212.08569999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="I34">
+        <f>G34+H34+F34+I33</f>
+        <v>233.48569999999995</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <f t="shared" si="5"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>1.93</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="4"/>
+      <c r="H35">
+        <f>G35*0.08</f>
         <v>0.15440000000000001</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
-        <v>214.17009999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="I35">
+        <f>G35+H35+F35+I34</f>
+        <v>235.57009999999994</v>
+      </c>
+      <c r="J35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>1.41</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="4"/>
+      <c r="H36">
+        <f>G36*0.08</f>
         <v>0.1128</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="2"/>
-        <v>215.69289999999992</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="I36">
+        <f>G36+H36+F36+I35</f>
+        <v>237.09289999999993</v>
+      </c>
+      <c r="J36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.22900000000000001</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>2.29</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="4"/>
+      <c r="H37">
+        <f>G37*0.08</f>
         <v>0.1832</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>218.16609999999991</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="I37">
+        <f>G37+H37+F37+I36</f>
+        <v>239.56609999999992</v>
+      </c>
+      <c r="J37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>0.371</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>10</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>3.71</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="4"/>
+      <c r="H38">
+        <f>G38*0.08</f>
         <v>0.29680000000000001</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
-        <v>232.17289999999991</v>
-      </c>
+      <c r="I38">
+        <f>G38+H38+F38+I37</f>
+        <v>253.57289999999992</v>
+      </c>
+      <c r="J38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="H39">
+        <f t="shared" ref="H39:H42" si="6">G39*0.08</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I42" si="7">G39+H39+F39+I38</f>
+        <v>253.57289999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>D40*E40</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>0.19440000000000002</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>256.19729999999993</v>
+      </c>
+      <c r="J40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G42" si="8">D41*E41</f>
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0.29119999999999996</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>260.12849999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>260.93849999999992</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="2"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
